--- a/statistics/Seg_PINN.xlsx
+++ b/statistics/Seg_PINN.xlsx
@@ -13,8 +13,90 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+standard domain</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+small domain</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+large domain</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>time</t>
   </si>
@@ -90,6 +172,27 @@
   <si>
     <t>8h 26min</t>
   </si>
+  <si>
+    <t>5h 57min</t>
+  </si>
+  <si>
+    <t>6h 19min</t>
+  </si>
+  <si>
+    <t>9h 0min</t>
+  </si>
+  <si>
+    <t>8h 41min</t>
+  </si>
+  <si>
+    <t>[2, 100, 100, 100, 2]</t>
+  </si>
+  <si>
+    <t>39h 17min</t>
+  </si>
+  <si>
+    <t>45h 26min</t>
+  </si>
 </sst>
 </file>
 
@@ -98,7 +201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +214,19 @@
       <color theme="1"/>
       <name val="Var(--jp-code-font-family)"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -120,7 +236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -187,11 +303,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -209,6 +345,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,6 +364,8673 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12025772757962326"/>
+          <c:y val="3.3287096401236775E-2"/>
+          <c:w val="0.77350252853827683"/>
+          <c:h val="0.87351544064048681"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>no weight reuse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>large domain</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.28032385319465802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>weight reuse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>large domain</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.26202587170451802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="313976704"/>
+        <c:axId val="313108280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="313976704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>standard domain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="313108280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="313108280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Rel_h</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.6906061784866317E-3"/>
+              <c:y val="0.40002178368163438"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="313976704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73897472355989569"/>
+          <c:y val="1.5787344671137758E-2"/>
+          <c:w val="0.25648240307269943"/>
+          <c:h val="0.16953470580235153"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12025772757962326"/>
+          <c:y val="3.3287096401236775E-2"/>
+          <c:w val="0.77350252853827683"/>
+          <c:h val="0.87351544064048681"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>no weight reuse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>large domain</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.78071203799242095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>weight reuse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>large domain</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.41723936326764899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="305093664"/>
+        <c:axId val="314691528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="305093664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>standard domain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="314691528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="314691528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Lw1_per_mean, %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.9620428621890744E-3"/>
+              <c:y val="0.29646192821112"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="305093664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73897472355989569"/>
+          <c:y val="1.5787344671137758E-2"/>
+          <c:w val="0.25648240307269943"/>
+          <c:h val="0.16953470580235153"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12025772757962326"/>
+          <c:y val="3.3287096401236775E-2"/>
+          <c:w val="0.77350252853827683"/>
+          <c:h val="0.87351544064048681"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>no weight reuse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>large domain</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.96451730608164998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>weight reuse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>large domain</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.57506352507546399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="314577760"/>
+        <c:axId val="314741304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="314577760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>standard domain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="314741304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="314741304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Lw2_per_mean, %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.9620428621890744E-3"/>
+              <c:y val="0.29646192821112"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314577760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73897472355989569"/>
+          <c:y val="1.5787344671137758E-2"/>
+          <c:w val="0.25648240307269943"/>
+          <c:h val="0.16953470580235153"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12025772757962326"/>
+          <c:y val="3.3287096401236775E-2"/>
+          <c:w val="0.77350252853827683"/>
+          <c:h val="0.87351544064048681"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>no weight reuse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>large domain</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.9650265995914699E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>weight reuse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>large domain</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.3556398997426397E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="314809648"/>
+        <c:axId val="314810032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="314809648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>small domain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="314810032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="314810032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6.0000000000000012E-2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Rel_h</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.6906061784866317E-3"/>
+              <c:y val="0.40002178368163438"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314809648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73897472355989569"/>
+          <c:y val="1.5787344671137758E-2"/>
+          <c:w val="0.25648240307269943"/>
+          <c:h val="0.16953470580235153"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12025772757962326"/>
+          <c:y val="3.3287096401236775E-2"/>
+          <c:w val="0.77350252853827683"/>
+          <c:h val="0.87351544064048681"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>no weight reuse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>large domain</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.431309806281654</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>weight reuse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>large domain</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.79846583683796601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="314812352"/>
+        <c:axId val="314812736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="314812352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>small domain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="314812736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="314812736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Lw1_per_mean, %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.9620428621890744E-3"/>
+              <c:y val="0.31125619327833642"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314812352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73897472355989569"/>
+          <c:y val="1.5787344671137758E-2"/>
+          <c:w val="0.25648240307269943"/>
+          <c:h val="0.16953470580235153"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12025772757962326"/>
+          <c:y val="3.3287096401236775E-2"/>
+          <c:w val="0.77350252853827683"/>
+          <c:h val="0.87351544064048681"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>no weight reuse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>large domain</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.332913372482604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>weight reuse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>large domain</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.85237855946865504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="314879800"/>
+        <c:axId val="314876664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="314879800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>small domain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="314876664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="314876664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Lw2_per_mean, %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.9620428621890744E-3"/>
+              <c:y val="0.31125619327833642"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314879800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73897472355989569"/>
+          <c:y val="1.5787344671137758E-2"/>
+          <c:w val="0.25648240307269943"/>
+          <c:h val="0.16953470580235153"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12025772757962326"/>
+          <c:y val="3.3287096401236775E-2"/>
+          <c:w val="0.77350252853827683"/>
+          <c:h val="0.87351544064048681"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>no weight reuse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>large domain</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.28644749648957302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>weight reuse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>large domain</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.23728750643031499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="444751944"/>
+        <c:axId val="444756648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="444751944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>large domain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="444756648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="444756648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.30000000000000004"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Rel_h</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.6906061784866317E-3"/>
+              <c:y val="0.40002178368163438"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444751944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73897472355989569"/>
+          <c:y val="1.5787344671137758E-2"/>
+          <c:w val="0.25648240307269943"/>
+          <c:h val="0.16953470580235153"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12025772757962326"/>
+          <c:y val="3.3287096401236775E-2"/>
+          <c:w val="0.77350252853827683"/>
+          <c:h val="0.87351544064048681"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>no weight reuse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>large domain</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.55128819476971402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>weight reuse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>large domain</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.85556502191128503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="148722488"/>
+        <c:axId val="148721704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="148722488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>large domain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148721704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="148721704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Lw1_per_mean, %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.9620428621890744E-3"/>
+              <c:y val="0.29646192821112"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="148722488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73897472355989569"/>
+          <c:y val="1.5787344671137758E-2"/>
+          <c:w val="0.25648240307269943"/>
+          <c:h val="0.16953470580235153"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12025772757962326"/>
+          <c:y val="3.3287096401236775E-2"/>
+          <c:w val="0.77350252853827683"/>
+          <c:h val="0.87351544064048681"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>no weight reuse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>large domain</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.77300861824780298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>weight reuse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>large domain</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.74080057458800896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="148718568"/>
+        <c:axId val="148717000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="148718568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>large domain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148717000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="148717000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Lw2_per_mean, %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.9620428621890744E-3"/>
+              <c:y val="0.29646192821112"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="148718568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73897472355989569"/>
+          <c:y val="1.5787344671137758E-2"/>
+          <c:w val="0.25648240307269943"/>
+          <c:h val="0.16953470580235153"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,17 +9319,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" style="5" customWidth="1"/>
@@ -890,8 +9697,256 @@
         <v>0.45655317202906898</v>
       </c>
     </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="13">
+        <v>3</v>
+      </c>
+      <c r="B10" s="13">
+        <v>20000</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>10000</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="15">
+        <v>5.3556398997426397E-2</v>
+      </c>
+      <c r="J10" s="15">
+        <v>2.15830015047854</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.79846583683796601</v>
+      </c>
+      <c r="L10" s="15">
+        <v>2.7223326354487698</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0.85237855946865504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="16">
+        <v>3</v>
+      </c>
+      <c r="B11" s="16">
+        <v>20000</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>10000</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5.9650265995914699E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.98889171816237897</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.431309806281654</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1.1990418120606301</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.332913372482604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="16">
+        <v>5</v>
+      </c>
+      <c r="B12" s="16">
+        <v>20000</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>10000</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="2">
+        <v>4.8846931803181101E-2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.90411584168623</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1.32945834803412</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2.2659377149926399</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1.6002125649954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="16">
+        <v>5</v>
+      </c>
+      <c r="B13" s="16">
+        <v>20000</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>10000</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4.1869892609240698E-2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.65416748598970198</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.28251893692290397</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.61398726853250896</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.25609606765063803</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="13">
+        <v>2</v>
+      </c>
+      <c r="B14" s="13">
+        <v>200000</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13">
+        <v>10000</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="15">
+        <v>0.23728750643031499</v>
+      </c>
+      <c r="J14" s="15">
+        <v>2.4095871119530599</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.85556502191128503</v>
+      </c>
+      <c r="L14" s="15">
+        <v>2.1012439562022198</v>
+      </c>
+      <c r="M14" s="15">
+        <v>0.74080057458800896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="16">
+        <v>2</v>
+      </c>
+      <c r="B15" s="16">
+        <v>200000</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="16">
+        <v>10000</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.28644749648957302</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1.7732849136023101</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.55128819476971402</v>
+      </c>
+      <c r="L15" s="2">
+        <v>3.3734647472515702</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.77300861824780298</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/statistics/Seg_PINN.xlsx
+++ b/statistics/Seg_PINN.xlsx
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>time</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>45h 26min</t>
+  </si>
+  <si>
+    <t>40h 28min</t>
+  </si>
+  <si>
+    <t>39h 48min</t>
   </si>
 </sst>
 </file>
@@ -481,11 +487,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="313976704"/>
-        <c:axId val="313108280"/>
+        <c:axId val="342132360"/>
+        <c:axId val="342149288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="313976704"/>
+        <c:axId val="342132360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -545,7 +551,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="313108280"/>
+        <c:crossAx val="342149288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -553,7 +559,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313108280"/>
+        <c:axId val="342149288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -661,7 +667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313976704"/>
+        <c:crossAx val="342132360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -868,11 +874,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="305093664"/>
-        <c:axId val="314691528"/>
+        <c:axId val="343183552"/>
+        <c:axId val="343220592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="305093664"/>
+        <c:axId val="343183552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,7 +938,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="314691528"/>
+        <c:crossAx val="343220592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -940,7 +946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314691528"/>
+        <c:axId val="343220592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1048,7 +1054,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305093664"/>
+        <c:crossAx val="343183552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1255,11 +1261,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="314577760"/>
-        <c:axId val="314741304"/>
+        <c:axId val="343378952"/>
+        <c:axId val="343379336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="314577760"/>
+        <c:axId val="343378952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,7 +1325,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="314741304"/>
+        <c:crossAx val="343379336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1327,7 +1333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314741304"/>
+        <c:axId val="343379336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1436,7 +1442,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314577760"/>
+        <c:crossAx val="343378952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1643,11 +1649,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="314809648"/>
-        <c:axId val="314810032"/>
+        <c:axId val="343432128"/>
+        <c:axId val="343436616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="314809648"/>
+        <c:axId val="343432128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1707,7 +1713,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="314810032"/>
+        <c:crossAx val="343436616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1715,7 +1721,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314810032"/>
+        <c:axId val="343436616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0000000000000012E-2"/>
@@ -1824,7 +1830,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314809648"/>
+        <c:crossAx val="343432128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000004E-2"/>
@@ -2031,11 +2037,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="314812352"/>
-        <c:axId val="314812736"/>
+        <c:axId val="341086232"/>
+        <c:axId val="341085448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="314812352"/>
+        <c:axId val="341086232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2095,7 +2101,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="314812736"/>
+        <c:crossAx val="341085448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2103,7 +2109,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314812736"/>
+        <c:axId val="341085448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -2212,7 +2218,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314812352"/>
+        <c:crossAx val="341086232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2419,11 +2425,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="314879800"/>
-        <c:axId val="314876664"/>
+        <c:axId val="343456400"/>
+        <c:axId val="343450520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="314879800"/>
+        <c:axId val="343456400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2483,7 +2489,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="314876664"/>
+        <c:crossAx val="343450520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2491,7 +2497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314876664"/>
+        <c:axId val="343450520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -2600,7 +2606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314879800"/>
+        <c:crossAx val="343456400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2807,11 +2813,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="444751944"/>
-        <c:axId val="444756648"/>
+        <c:axId val="343454048"/>
+        <c:axId val="343455224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="444751944"/>
+        <c:axId val="343454048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2871,7 +2877,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444756648"/>
+        <c:crossAx val="343455224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2879,7 +2885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444756648"/>
+        <c:axId val="343455224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -2988,7 +2994,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444751944"/>
+        <c:crossAx val="343454048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -3176,7 +3182,7 @@
             <c:numRef>
               <c:f>Sheet1!$K$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0.85556502191128503</c:v>
@@ -3195,11 +3201,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="148722488"/>
-        <c:axId val="148721704"/>
+        <c:axId val="343450912"/>
+        <c:axId val="343456008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148722488"/>
+        <c:axId val="343450912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3259,7 +3265,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148721704"/>
+        <c:crossAx val="343456008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3267,7 +3273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148721704"/>
+        <c:axId val="343456008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3375,7 +3381,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148722488"/>
+        <c:crossAx val="343450912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3563,7 +3569,7 @@
             <c:numRef>
               <c:f>Sheet1!$M$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0.74080057458800896</c:v>
@@ -3582,11 +3588,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="148718568"/>
-        <c:axId val="148717000"/>
+        <c:axId val="343452480"/>
+        <c:axId val="343456792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148718568"/>
+        <c:axId val="343452480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3646,7 +3652,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148717000"/>
+        <c:crossAx val="343456792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3654,7 +3660,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148717000"/>
+        <c:axId val="343456792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3763,7 +3769,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148718568"/>
+        <c:crossAx val="343452480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -9320,10 +9326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9943,6 +9949,88 @@
         <v>0.77300861824780298</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="16">
+        <v>2</v>
+      </c>
+      <c r="B16" s="16">
+        <v>200000</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="16">
+        <v>5000</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.25159614217114101</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.30105524049885002</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.15302461981393201</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.69181021167485801</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.22374872661658399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="16">
+        <v>2</v>
+      </c>
+      <c r="B17" s="16">
+        <v>200000</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="16">
+        <v>2500</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.257293616039666</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.69542239222895896</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.40917094938318899</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.71517732588527805</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.49354435005095798</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
